--- a/outputs/gohealth_emr_output.xlsx
+++ b/outputs/gohealth_emr_output.xlsx
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="F2" s="3" t="n">
-        <v>46026</v>
+        <v>46027</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>132320</v>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="F3" s="3" t="n">
-        <v>46026</v>
+        <v>46027</v>
       </c>
       <c r="G3" s="3" t="n">
         <v>132320</v>
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="F4" s="3" t="n">
-        <v>46026</v>
+        <v>46027</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>132320</v>
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="F5" s="3" t="n">
-        <v>46026</v>
+        <v>46027</v>
       </c>
       <c r="G5" s="3" t="n">
         <v>132320</v>
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="F6" s="3" t="n">
-        <v>46026</v>
+        <v>46027</v>
       </c>
       <c r="G6" s="3" t="n">
         <v>132320</v>
